--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H2">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I2">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J2">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N2">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q2">
-        <v>0.8622467627028827</v>
+        <v>0.06854043302544444</v>
       </c>
       <c r="R2">
-        <v>0.8622467627028827</v>
+        <v>0.616863897229</v>
       </c>
       <c r="S2">
-        <v>0.09263605874622881</v>
+        <v>0.005197186481760878</v>
       </c>
       <c r="T2">
-        <v>0.09263605874622881</v>
+        <v>0.005197186481760879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H3">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I3">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J3">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N3">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q3">
-        <v>5.661932247079513</v>
+        <v>0.1981999650787777</v>
       </c>
       <c r="R3">
-        <v>5.661932247079513</v>
+        <v>1.783799685709</v>
       </c>
       <c r="S3">
-        <v>0.6082934850500094</v>
+        <v>0.01502882508504873</v>
       </c>
       <c r="T3">
-        <v>0.6082934850500094</v>
+        <v>0.01502882508504873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.34351066313924</v>
+        <v>0.1814536666666667</v>
       </c>
       <c r="H4">
-        <v>5.34351066313924</v>
+        <v>0.544361</v>
       </c>
       <c r="I4">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002304</v>
       </c>
       <c r="J4">
-        <v>0.8197050661307325</v>
+        <v>0.02449781286002305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N4">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q4">
-        <v>1.105550160567803</v>
+        <v>0.05633646425099999</v>
       </c>
       <c r="R4">
-        <v>1.105550160567803</v>
+        <v>0.5070281782589999</v>
       </c>
       <c r="S4">
-        <v>0.1187755223344944</v>
+        <v>0.004271801293213431</v>
       </c>
       <c r="T4">
-        <v>0.1187755223344944</v>
+        <v>0.004271801293213432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H5">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I5">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J5">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N5">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q5">
-        <v>0.06630520679358967</v>
+        <v>2.058285089804778</v>
       </c>
       <c r="R5">
-        <v>0.06630520679358967</v>
+        <v>18.524565808243</v>
       </c>
       <c r="S5">
-        <v>0.00712354432327205</v>
+        <v>0.1560727146321381</v>
       </c>
       <c r="T5">
-        <v>0.00712354432327205</v>
+        <v>0.1560727146321381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H6">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I6">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J6">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N6">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q6">
-        <v>0.4353922852862755</v>
+        <v>5.951990889378109</v>
       </c>
       <c r="R6">
-        <v>0.4353922852862755</v>
+        <v>53.56791800440299</v>
       </c>
       <c r="S6">
-        <v>0.04677666192796409</v>
+        <v>0.45131910063008</v>
       </c>
       <c r="T6">
-        <v>0.04677666192796409</v>
+        <v>0.4513191006300801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41090624499716</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H7">
-        <v>0.41090624499716</v>
+        <v>16.347287</v>
       </c>
       <c r="I7">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998847</v>
       </c>
       <c r="J7">
-        <v>0.06303382775155719</v>
+        <v>0.7356749981998849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N7">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O7">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P7">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q7">
-        <v>0.08501479528592192</v>
+        <v>1.691797078917</v>
       </c>
       <c r="R7">
-        <v>0.08501479528592192</v>
+        <v>15.226173710253</v>
       </c>
       <c r="S7">
-        <v>0.009133621500321057</v>
+        <v>0.1282831829376666</v>
       </c>
       <c r="T7">
-        <v>0.009133621500321057</v>
+        <v>0.1282831829376666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H8">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I8">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J8">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N8">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O8">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P8">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q8">
-        <v>0.1233468149931251</v>
+        <v>0.0988799316718889</v>
       </c>
       <c r="R8">
-        <v>0.1233468149931251</v>
+        <v>0.889919385047</v>
       </c>
       <c r="S8">
-        <v>0.01325184772401483</v>
+        <v>0.007497726838285437</v>
       </c>
       <c r="T8">
-        <v>0.01325184772401483</v>
+        <v>0.007497726838285438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.764404170233046</v>
+        <v>0.2617743333333333</v>
       </c>
       <c r="H9">
-        <v>0.764404170233046</v>
+        <v>0.785323</v>
       </c>
       <c r="I9">
-        <v>0.1172611061177102</v>
+        <v>0.035341796875</v>
       </c>
       <c r="J9">
-        <v>0.1172611061177102</v>
+        <v>0.03534179687500001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N9">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P9">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q9">
-        <v>0.8099552698753102</v>
+        <v>0.2859333992985555</v>
       </c>
       <c r="R9">
-        <v>0.8099552698753102</v>
+        <v>2.573400593687</v>
       </c>
       <c r="S9">
-        <v>0.08701808717354548</v>
+        <v>0.0216813511663505</v>
       </c>
       <c r="T9">
-        <v>0.08701808717354548</v>
+        <v>0.02168135116635051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,619 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2617743333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.785323</v>
+      </c>
+      <c r="I10">
+        <v>0.035341796875</v>
+      </c>
+      <c r="J10">
+        <v>0.03534179687500001</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.310473</v>
+      </c>
+      <c r="N10">
+        <v>0.931419</v>
+      </c>
+      <c r="O10">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P10">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q10">
+        <v>0.081273862593</v>
+      </c>
+      <c r="R10">
+        <v>0.7314647633369999</v>
+      </c>
+      <c r="S10">
+        <v>0.006162718870364064</v>
+      </c>
+      <c r="T10">
+        <v>0.006162718870364065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.680199</v>
+      </c>
+      <c r="I11">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J11">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.133189</v>
+      </c>
+      <c r="O11">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P11">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q11">
+        <v>0.2115536694012222</v>
+      </c>
+      <c r="R11">
+        <v>1.903983024611</v>
+      </c>
+      <c r="S11">
+        <v>0.0160413907856517</v>
+      </c>
+      <c r="T11">
+        <v>0.01604139078565171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.680199</v>
+      </c>
+      <c r="I12">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J12">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.276869</v>
+      </c>
+      <c r="O12">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P12">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q12">
+        <v>0.6117546685478888</v>
+      </c>
+      <c r="R12">
+        <v>5.505792016931</v>
+      </c>
+      <c r="S12">
+        <v>0.04638726300942535</v>
+      </c>
+      <c r="T12">
+        <v>0.04638726300942536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5600663333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.680199</v>
+      </c>
+      <c r="I13">
+        <v>0.0756137942828341</v>
+      </c>
+      <c r="J13">
+        <v>0.07561379428283413</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.310473</v>
+      </c>
+      <c r="N13">
+        <v>0.931419</v>
+      </c>
+      <c r="O13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P13">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q13">
+        <v>0.173885474709</v>
+      </c>
+      <c r="R13">
+        <v>1.564969272381</v>
+      </c>
+      <c r="S13">
+        <v>0.01318514048775705</v>
+      </c>
+      <c r="T13">
+        <v>0.01318514048775705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.764404170233046</v>
-      </c>
-      <c r="H10">
-        <v>0.764404170233046</v>
-      </c>
-      <c r="I10">
-        <v>0.1172611061177102</v>
-      </c>
-      <c r="J10">
-        <v>0.1172611061177102</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="N10">
-        <v>0.206895846244706</v>
-      </c>
-      <c r="O10">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="P10">
-        <v>0.1449003150549654</v>
-      </c>
-      <c r="Q10">
-        <v>0.1581520476733483</v>
-      </c>
-      <c r="R10">
-        <v>0.1581520476733483</v>
-      </c>
-      <c r="S10">
-        <v>0.01699117122014994</v>
-      </c>
-      <c r="T10">
-        <v>0.01699117122014994</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.503686</v>
+      </c>
+      <c r="I14">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J14">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.133189</v>
+      </c>
+      <c r="O14">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P14">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q14">
+        <v>0.06341904829488888</v>
+      </c>
+      <c r="R14">
+        <v>0.5707714346539999</v>
+      </c>
+      <c r="S14">
+        <v>0.004808849403708586</v>
+      </c>
+      <c r="T14">
+        <v>0.004808849403708587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.503686</v>
+      </c>
+      <c r="I15">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J15">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.276869</v>
+      </c>
+      <c r="O15">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P15">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q15">
+        <v>0.1833903376815555</v>
+      </c>
+      <c r="R15">
+        <v>1.650513039134</v>
+      </c>
+      <c r="S15">
+        <v>0.01390586172004948</v>
+      </c>
+      <c r="T15">
+        <v>0.01390586172004948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1678953333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.503686</v>
+      </c>
+      <c r="I16">
+        <v>0.02266732070852534</v>
+      </c>
+      <c r="J16">
+        <v>0.02266732070852535</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.310473</v>
+      </c>
+      <c r="N16">
+        <v>0.931419</v>
+      </c>
+      <c r="O16">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P16">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q16">
+        <v>0.05212696782599999</v>
+      </c>
+      <c r="R16">
+        <v>0.469142710434</v>
+      </c>
+      <c r="S16">
+        <v>0.003952609584767278</v>
+      </c>
+      <c r="T16">
+        <v>0.003952609584767279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.786648</v>
+      </c>
+      <c r="H17">
+        <v>2.359944</v>
+      </c>
+      <c r="I17">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J17">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3777296666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.133189</v>
+      </c>
+      <c r="O17">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="P17">
+        <v>0.2121489992374768</v>
+      </c>
+      <c r="Q17">
+        <v>0.297140286824</v>
+      </c>
+      <c r="R17">
+        <v>2.674262581416</v>
+      </c>
+      <c r="S17">
+        <v>0.02253113109593211</v>
+      </c>
+      <c r="T17">
+        <v>0.02253113109593211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.786648</v>
+      </c>
+      <c r="H18">
+        <v>2.359944</v>
+      </c>
+      <c r="I18">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J18">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.276869</v>
+      </c>
+      <c r="O18">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="P18">
+        <v>0.6134761976883921</v>
+      </c>
+      <c r="Q18">
+        <v>0.859247481704</v>
+      </c>
+      <c r="R18">
+        <v>7.733227335336</v>
+      </c>
+      <c r="S18">
+        <v>0.06515379607743803</v>
+      </c>
+      <c r="T18">
+        <v>0.06515379607743804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.786648</v>
+      </c>
+      <c r="H19">
+        <v>2.359944</v>
+      </c>
+      <c r="I19">
+        <v>0.1062042770737327</v>
+      </c>
+      <c r="J19">
+        <v>0.1062042770737328</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.310473</v>
+      </c>
+      <c r="N19">
+        <v>0.931419</v>
+      </c>
+      <c r="O19">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="P19">
+        <v>0.174374803074131</v>
+      </c>
+      <c r="Q19">
+        <v>0.244232964504</v>
+      </c>
+      <c r="R19">
+        <v>2.198096680536</v>
+      </c>
+      <c r="S19">
+        <v>0.01851934990036259</v>
+      </c>
+      <c r="T19">
+        <v>0.01851934990036259</v>
       </c>
     </row>
   </sheetData>
